--- a/Excel/main.xlsx
+++ b/Excel/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DATA\da-ds-notes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F28315-1472-42D1-A527-043C61048F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E463BA1-151F-4F66-834A-ECF8FCC9F00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
@@ -28,24 +28,26 @@
     <sheet name="Power Query" sheetId="30" r:id="rId13"/>
     <sheet name="Pivot Table (DATA)" sheetId="32" r:id="rId14"/>
     <sheet name="Pivot Table &amp; Charts" sheetId="31" r:id="rId15"/>
-    <sheet name="Assignment 1" sheetId="8" r:id="rId16"/>
-    <sheet name="Assignment 2" sheetId="9" r:id="rId17"/>
-    <sheet name="Assignment 3" sheetId="11" r:id="rId18"/>
-    <sheet name="Assignment 4" sheetId="14" r:id="rId19"/>
-    <sheet name="Assignment 5" sheetId="16" r:id="rId20"/>
-    <sheet name="Assignment 6" sheetId="18" r:id="rId21"/>
-    <sheet name="Assignment 7" sheetId="21" r:id="rId22"/>
-    <sheet name="Assignment 8" sheetId="23" r:id="rId23"/>
-    <sheet name="Assignment 9" sheetId="24" r:id="rId24"/>
-    <sheet name="Assignment 10" sheetId="26" r:id="rId25"/>
-    <sheet name="Assignment 11" sheetId="27" r:id="rId26"/>
+    <sheet name="Scenario Summary" sheetId="34" r:id="rId16"/>
+    <sheet name="What-If Analysis" sheetId="33" r:id="rId17"/>
+    <sheet name="Assignment 1" sheetId="8" r:id="rId18"/>
+    <sheet name="Assignment 2" sheetId="9" r:id="rId19"/>
+    <sheet name="Assignment 3" sheetId="11" r:id="rId20"/>
+    <sheet name="Assignment 4" sheetId="14" r:id="rId21"/>
+    <sheet name="Assignment 5" sheetId="16" r:id="rId22"/>
+    <sheet name="Assignment 6" sheetId="18" r:id="rId23"/>
+    <sheet name="Assignment 7" sheetId="21" r:id="rId24"/>
+    <sheet name="Assignment 8" sheetId="23" r:id="rId25"/>
+    <sheet name="Assignment 9" sheetId="24" r:id="rId26"/>
+    <sheet name="Assignment 10" sheetId="26" r:id="rId27"/>
+    <sheet name="Assignment 11" sheetId="27" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="12" hidden="1">'Power Query'!$A$1:$O$673</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId27"/>
+    <pivotCache cacheId="0" r:id="rId29"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +62,7 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId28" roundtripDataChecksum="sCUOYFUx2qqVf1bTUVZaBaIU3nh63l0w2d6KssZuSMs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId30" roundtripDataChecksum="sCUOYFUx2qqVf1bTUVZaBaIU3nh63l0w2d6KssZuSMs="/>
     </ext>
   </extLst>
 </workbook>
@@ -97,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10159" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10199" uniqueCount="2012">
   <si>
     <t>validation  rules</t>
   </si>
@@ -6081,6 +6083,73 @@
   <si>
     <t>Unit Cost</t>
   </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Scenario Manager</t>
+  </si>
+  <si>
+    <t>Goal Seek</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>$C$8</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Created by HP on 30-09-2025
+Modified by HP on 30-09-2025</t>
+  </si>
+  <si>
+    <t>Qty 200</t>
+  </si>
+  <si>
+    <t>Created by HP on 30-09-2025</t>
+  </si>
+  <si>
+    <t>Qty 300</t>
+  </si>
+  <si>
+    <t>Unit Price 11</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
 </sst>
 </file>
 
@@ -6091,11 +6160,18 @@
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6251,8 +6327,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6354,8 +6468,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -7222,76 +7354,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyFont="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyFont="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -7303,10 +7462,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7319,13 +7478,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -7333,9 +7492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7346,181 +7505,190 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -7531,13 +7699,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -7545,27 +7713,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7578,299 +7768,6 @@
     <cellStyle name="Style 1" xfId="4" xr:uid="{53DCE9A4-A2F8-493C-A814-E79848A678B3}"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -8162,6 +8059,299 @@
         <b/>
         <family val="2"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -9164,19 +9354,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9234,19 +9412,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9304,19 +9470,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -9374,20 +9528,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:alpha val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10022,8 +10163,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -10066,6 +10206,166 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="110000"/>
+                  <a:satMod val="105000"/>
+                  <a:tint val="67000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="103000"/>
+                  <a:tint val="73000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="105000"/>
+                  <a:satMod val="109000"/>
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -10126,6 +10426,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7CA2-4415-977A-DFD1413BF2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -10167,6 +10472,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7CA2-4415-977A-DFD1413BF2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -10208,6 +10518,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7CA2-4415-977A-DFD1413BF2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -10249,6 +10564,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7CA2-4415-977A-DFD1413BF2A0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -12753,6 +13073,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA50C47-519D-6F61-B200-A9D1EC62FA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5303520" y="472440"/>
+          <a:ext cx="1638300" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> find: How much quantity needed to reach profit of ₹1500</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609081</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -12979,7 +13380,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13405,199 +13806,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB443239-363B-4A1A-96D3-93DF80C5D41A}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="O2:P13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Revenue" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3635B19D-3C15-4068-87E5-AEDD9254A11F}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="I2:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Revenue" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1340B11B-DAA2-4103-983A-BDCAFD2BC047}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1340B11B-DAA2-4103-983A-BDCAFD2BC047}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B2:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -13739,6 +13948,246 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB443239-363B-4A1A-96D3-93DF80C5D41A}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="O2:P13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Revenue" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3635B19D-3C15-4068-87E5-AEDD9254A11F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I2:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Revenue" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{388A3916-792D-40BB-974C-E89F86E1CABE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="16">
@@ -13851,36 +14300,36 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{702BAF9C-7D5E-4863-845D-39F699A06E85}" name="Table9" displayName="Table9" ref="B2:L22" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{702BAF9C-7D5E-4863-845D-39F699A06E85}" name="Table9" displayName="Table9" ref="B2:L22" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="B2:L22" xr:uid="{702BAF9C-7D5E-4863-845D-39F699A06E85}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5AF12E71-5D62-4B7D-8F13-ED88180132B4}" name="Date" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{9F51DD7A-DDD8-4299-92D1-F383BDBF34D5}" name="Store ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{D818FB7C-1C59-4F2F-BD14-740EA5358415}" name="Region" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9BC1883E-6BA5-42D9-BA2A-EA8FFA56E126}" name="Product Category" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{63A10691-8513-4D22-BE97-A62D3A86C450}" name="Product Name" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C3EE18B9-2109-4D84-9A26-1EDD57A10C41}" name="Units Sold" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{24B45D1D-9A08-4944-BFBF-99E8C1D12C48}" name="Unit Price" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{684D7D09-E748-4DA9-BCD7-0D854D0A8D04}" name="Unit Cost" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E27AEF17-9D42-4907-A361-0E4DB0DBEDC2}" name="Total Revenue" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5AF12E71-5D62-4B7D-8F13-ED88180132B4}" name="Date" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9F51DD7A-DDD8-4299-92D1-F383BDBF34D5}" name="Store ID" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{D818FB7C-1C59-4F2F-BD14-740EA5358415}" name="Region" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{9BC1883E-6BA5-42D9-BA2A-EA8FFA56E126}" name="Product Category" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{63A10691-8513-4D22-BE97-A62D3A86C450}" name="Product Name" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{C3EE18B9-2109-4D84-9A26-1EDD57A10C41}" name="Units Sold" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{24B45D1D-9A08-4944-BFBF-99E8C1D12C48}" name="Unit Price" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{684D7D09-E748-4DA9-BCD7-0D854D0A8D04}" name="Unit Cost" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{E27AEF17-9D42-4907-A361-0E4DB0DBEDC2}" name="Total Revenue" dataDxfId="26">
       <calculatedColumnFormula>(H3 - I3) * G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{57BCC662-D621-4A78-B6A9-0255D83030BA}" name="Customer Type" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C8DFFA74-5368-4821-8E0B-910BEF47317E}" name="Payment Method" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{57BCC662-D621-4A78-B6A9-0255D83030BA}" name="Customer Type" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{C8DFFA74-5368-4821-8E0B-910BEF47317E}" name="Payment Method" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{321DD20C-5069-491A-B332-7BE11C2A85DE}" name="Table2" displayName="Table2" ref="C3:G13" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{321DD20C-5069-491A-B332-7BE11C2A85DE}" name="Table2" displayName="Table2" ref="C3:G13" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="C3:G13" xr:uid="{321DD20C-5069-491A-B332-7BE11C2A85DE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{52B8C531-2F46-4165-AD00-CC9675A9AD96}" name="sr no" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{5C60A310-FB7F-4241-88E1-06AE9F60A5A9}" name="ITEMS" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{18D91AC6-2346-4C64-B5CF-54E2F1E5D32C}" name="QTY" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{838D817B-EE9D-45A9-B5BE-AFFCD04D5314}" name="RATE" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{EB5BBFA3-5803-4AFC-A8C2-B4A65875378B}" name="AMOUNT" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{52B8C531-2F46-4165-AD00-CC9675A9AD96}" name="sr no" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5C60A310-FB7F-4241-88E1-06AE9F60A5A9}" name="ITEMS" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{18D91AC6-2346-4C64-B5CF-54E2F1E5D32C}" name="QTY" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{838D817B-EE9D-45A9-B5BE-AFFCD04D5314}" name="RATE" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{EB5BBFA3-5803-4AFC-A8C2-B4A65875378B}" name="AMOUNT" dataDxfId="17">
       <calculatedColumnFormula>E4*F4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13892,9 +14341,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17F8FC4F-770C-4D4A-9EB6-6F040142D375}" name="Table7" displayName="Table7" ref="B2:D21" totalsRowShown="0">
   <autoFilter ref="B2:D21" xr:uid="{17F8FC4F-770C-4D4A-9EB6-6F040142D375}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B0E49CD2-C3E8-40C3-A443-74791CA360B6}" name="Items" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{86D52FC2-11AA-4A01-929A-436E001947D4}" name="Date" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{D8310B11-B2F7-4028-9F29-CFC07071B75F}" name="Cost" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{B0E49CD2-C3E8-40C3-A443-74791CA360B6}" name="Items" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{86D52FC2-11AA-4A01-929A-436E001947D4}" name="Date" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D8310B11-B2F7-4028-9F29-CFC07071B75F}" name="Cost" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14117,70 +14566,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="G2" s="174" t="s">
+      <c r="C2" s="183"/>
+      <c r="G2" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="175"/>
+      <c r="H2" s="183"/>
     </row>
     <row r="3" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="G3" s="174" t="s">
+      <c r="C3" s="183"/>
+      <c r="G3" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="175"/>
+      <c r="H3" s="183"/>
     </row>
     <row r="4" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="G4" s="174" t="s">
+      <c r="C4" s="183"/>
+      <c r="G4" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="175"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="G5" s="174" t="s">
+      <c r="C5" s="183"/>
+      <c r="G5" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="175"/>
+      <c r="H5" s="183"/>
     </row>
     <row r="6" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="G6" s="174" t="s">
+      <c r="C6" s="183"/>
+      <c r="G6" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="175"/>
+      <c r="H6" s="183"/>
     </row>
     <row r="7" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="G7" s="174" t="s">
+      <c r="C7" s="183"/>
+      <c r="G7" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="175"/>
+      <c r="H7" s="183"/>
     </row>
     <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="177"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
@@ -14198,10 +14647,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="177" t="s">
+      <c r="B11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="177"/>
+      <c r="C11" s="181"/>
       <c r="D11" s="5">
         <v>65</v>
       </c>
@@ -14219,10 +14668,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="177"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="5">
         <v>45</v>
       </c>
@@ -14240,10 +14689,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="177"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="5">
         <v>35</v>
       </c>
@@ -14261,10 +14710,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="177"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="5">
         <v>99</v>
       </c>
@@ -14282,10 +14731,10 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="177"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="5">
         <v>78</v>
       </c>
@@ -15284,6 +15733,14 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -15294,14 +15751,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="info - select one from give options." sqref="G11:G15" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -15352,18 +15801,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="60"/>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="202" t="s">
         <v>443</v>
       </c>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="205"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="208"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -15381,10 +15830,10 @@
       <c r="I3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="222" t="s">
+      <c r="J3" s="229" t="s">
         <v>416</v>
       </c>
-      <c r="K3" s="223"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
@@ -15395,7 +15844,7 @@
       </c>
       <c r="D4" s="69">
         <f ca="1">TODAY()</f>
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="E4" s="67"/>
       <c r="H4" s="39" t="s">
@@ -15404,11 +15853,11 @@
       <c r="I4" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="J4" s="224" t="str">
+      <c r="J4" s="231" t="str">
         <f ca="1">TEXT(D4,"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="K4" s="225"/>
+      <c r="K4" s="232"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
@@ -15419,7 +15868,7 @@
       </c>
       <c r="D5" s="70">
         <f ca="1">NOW()</f>
-        <v>45923.550417708335</v>
+        <v>45930.567702083332</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>426</v>
@@ -15427,11 +15876,11 @@
       <c r="I5" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="J5" s="224" t="str">
+      <c r="J5" s="231" t="str">
         <f ca="1">TEXT(D4,"mmmm")</f>
         <v>September</v>
       </c>
-      <c r="K5" s="225"/>
+      <c r="K5" s="232"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
@@ -15442,7 +15891,7 @@
       </c>
       <c r="D6" s="40">
         <f ca="1">DAY(D4)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>428</v>
@@ -15450,11 +15899,11 @@
       <c r="I6" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="J6" s="224" t="str">
+      <c r="J6" s="231" t="str">
         <f ca="1">TEXT(D4,"yyyy")</f>
         <v>2025</v>
       </c>
-      <c r="K6" s="225"/>
+      <c r="K6" s="232"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
@@ -15473,11 +15922,11 @@
       <c r="I7" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="J7" s="224" t="str">
+      <c r="J7" s="231" t="str">
         <f ca="1">TEXT(D4,"d mmmm yyyy")</f>
-        <v>23 September 2025</v>
-      </c>
-      <c r="K7" s="225"/>
+        <v>30 September 2025</v>
+      </c>
+      <c r="K7" s="232"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="41" t="s">
@@ -15496,11 +15945,11 @@
       <c r="I8" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="J8" s="216">
+      <c r="J8" s="223">
         <f ca="1">EOMONTH(D4,0)</f>
         <v>45930</v>
       </c>
-      <c r="K8" s="217"/>
+      <c r="K8" s="224"/>
     </row>
     <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="39" t="s">
@@ -15509,29 +15958,29 @@
       <c r="I9" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="J9" s="218">
+      <c r="J9" s="225">
         <f ca="1">EOMONTH(D4,3)</f>
         <v>46022</v>
       </c>
-      <c r="K9" s="219"/>
+      <c r="K9" s="226"/>
     </row>
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="202" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="205"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="208"/>
       <c r="H10" s="41" t="s">
         <v>436</v>
       </c>
       <c r="I10" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="J10" s="220">
+      <c r="J10" s="227">
         <f ca="1">EOMONTH(D4,-3)</f>
         <v>45838</v>
       </c>
-      <c r="K10" s="221"/>
+      <c r="K10" s="228"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="44" t="s">
@@ -15578,11 +16027,11 @@
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="202" t="s">
         <v>438</v>
       </c>
-      <c r="C15" s="204"/>
-      <c r="D15" s="205"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="208"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
@@ -15623,11 +16072,11 @@
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="195" t="s">
+      <c r="B20" s="202" t="s">
         <v>442</v>
       </c>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="208"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="44" t="s">
@@ -15704,22 +16153,22 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="L2" s="85"/>
-      <c r="N2" s="195" t="s">
+      <c r="N2" s="202" t="s">
         <v>471</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="R2" s="195" t="s">
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="R2" s="202" t="s">
         <v>581</v>
       </c>
-      <c r="S2" s="204"/>
-      <c r="T2" s="205"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="208"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -15731,11 +16180,11 @@
       <c r="D3" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="H3" s="226" t="s">
+      <c r="H3" s="233" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="227"/>
-      <c r="J3" s="228"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="235"/>
       <c r="K3" s="38" t="s">
         <v>55</v>
       </c>
@@ -15769,11 +16218,11 @@
       <c r="D4" s="40">
         <v>56</v>
       </c>
-      <c r="H4" s="229" t="s">
+      <c r="H4" s="236" t="s">
         <v>466</v>
       </c>
-      <c r="I4" s="230"/>
-      <c r="J4" s="231"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="238"/>
       <c r="K4" s="40">
         <f>VLOOKUP(B6,B3:D7,3,0)</f>
         <v>58</v>
@@ -15810,11 +16259,11 @@
       <c r="D5" s="40">
         <v>78</v>
       </c>
-      <c r="H5" s="229" t="s">
+      <c r="H5" s="236" t="s">
         <v>467</v>
       </c>
-      <c r="I5" s="230"/>
-      <c r="J5" s="231"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="238"/>
       <c r="K5" s="40" t="str">
         <f>VLOOKUP(B6,B3:D7,2,0)</f>
         <v>Arthur</v>
@@ -15851,11 +16300,11 @@
       <c r="D6" s="40">
         <v>58</v>
       </c>
-      <c r="H6" s="232" t="s">
+      <c r="H6" s="239" t="s">
         <v>469</v>
       </c>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="241"/>
       <c r="K6" s="43">
         <f>VLOOKUP(C7,C3:D7,2,0)</f>
         <v>73</v>
@@ -15929,18 +16378,18 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
-      <c r="H9" s="206" t="s">
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208"/>
+      <c r="H9" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
       <c r="K9" s="38" t="s">
         <v>55</v>
       </c>
@@ -15973,11 +16422,11 @@
       <c r="F10" s="40">
         <v>104</v>
       </c>
-      <c r="H10" s="202" t="s">
+      <c r="H10" s="215" t="s">
         <v>466</v>
       </c>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
       <c r="K10" s="40">
         <f>HLOOKUP(E10,B10:F12,3,0)</f>
         <v>84</v>
@@ -16011,11 +16460,11 @@
       <c r="F11" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="H11" s="202" t="s">
+      <c r="H11" s="215" t="s">
         <v>467</v>
       </c>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
       <c r="K11" s="40" t="str">
         <f>HLOOKUP(E10,B10:F12,2,0)</f>
         <v>Arthur</v>
@@ -16049,11 +16498,11 @@
       <c r="F12" s="43">
         <v>75</v>
       </c>
-      <c r="H12" s="211" t="s">
+      <c r="H12" s="216" t="s">
         <v>469</v>
       </c>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
+      <c r="I12" s="214"/>
+      <c r="J12" s="214"/>
       <c r="K12" s="43">
         <f>HLOOKUP(F11,B11:F12,2,0)</f>
         <v>75</v>
@@ -16075,19 +16524,19 @@
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="202" t="s">
         <v>482</v>
       </c>
-      <c r="C14" s="204"/>
-      <c r="D14" s="205"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="208"/>
       <c r="L14" s="85"/>
-      <c r="N14" s="195" t="s">
+      <c r="N14" s="202" t="s">
         <v>373</v>
       </c>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="205"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="208"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="44" t="s">
@@ -16099,11 +16548,11 @@
       <c r="D15" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="206" t="s">
+      <c r="H15" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="I15" s="207"/>
-      <c r="J15" s="207"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="38" t="s">
         <v>55</v>
       </c>
@@ -16132,11 +16581,11 @@
       <c r="D16" s="40">
         <v>20000</v>
       </c>
-      <c r="H16" s="202" t="s">
+      <c r="H16" s="215" t="s">
         <v>475</v>
       </c>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="212"/>
       <c r="K16" s="40">
         <f>VLOOKUP(B20,B15:D21,3,0)</f>
         <v>36000</v>
@@ -16168,11 +16617,11 @@
       <c r="D17" s="40">
         <v>50000</v>
       </c>
-      <c r="H17" s="211" t="s">
+      <c r="H17" s="216" t="s">
         <v>477</v>
       </c>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
       <c r="K17" s="43">
         <f>VLOOKUP(B18,B15:D21,2,0)</f>
         <v>106</v>
@@ -16231,11 +16680,11 @@
       <c r="D19" s="40">
         <v>5000</v>
       </c>
-      <c r="H19" s="235" t="s">
+      <c r="H19" s="242" t="s">
         <v>478</v>
       </c>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
+      <c r="I19" s="219"/>
+      <c r="J19" s="219"/>
       <c r="K19" s="51" t="str">
         <f>VLOOKUP(C24,C23:D29,2,0)</f>
         <v>PC</v>
@@ -16252,28 +16701,28 @@
       <c r="D20" s="40">
         <v>36000</v>
       </c>
-      <c r="H20" s="211" t="s">
+      <c r="H20" s="216" t="s">
         <v>480</v>
       </c>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
       <c r="K20" s="43" t="str">
         <f>VLOOKUP(B29,B23:D29,3,0)</f>
         <v>FAN</v>
       </c>
       <c r="L20" s="85"/>
-      <c r="N20" s="195" t="s">
+      <c r="N20" s="202" t="s">
         <v>581</v>
       </c>
-      <c r="O20" s="204"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="205"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="207"/>
+      <c r="Q20" s="207"/>
+      <c r="R20" s="207"/>
+      <c r="S20" s="207"/>
+      <c r="T20" s="207"/>
+      <c r="U20" s="207"/>
+      <c r="V20" s="207"/>
+      <c r="W20" s="208"/>
     </row>
     <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="41" t="s">
@@ -16484,6 +16933,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N14:R14"/>
     <mergeCell ref="N20:W20"/>
@@ -16496,14 +16953,6 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16537,14 +16986,14 @@
       <c r="G3" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="H3" s="207" t="s">
+      <c r="H3" s="218" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
       <c r="N3" s="38" t="s">
         <v>55</v>
       </c>
@@ -16565,14 +17014,14 @@
       <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="203" t="s">
+      <c r="H4" s="212" t="s">
         <v>566</v>
       </c>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
       <c r="N4" s="40">
         <f>INDEX(B4:E9, MATCH("Niya", B4:B9, 0), MATCH(2021, B3:E3, 0))</f>
         <v>35741</v>
@@ -16594,14 +17043,14 @@
       <c r="G5" s="39">
         <v>2</v>
       </c>
-      <c r="H5" s="203" t="s">
+      <c r="H5" s="212" t="s">
         <v>567</v>
       </c>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
       <c r="N5" s="40">
         <f>INDEX(C3:C9,MATCH("Siya",B3:B9,0))</f>
         <v>14252</v>
@@ -16623,14 +17072,14 @@
       <c r="G6" s="39">
         <v>3</v>
       </c>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="212" t="s">
         <v>568</v>
       </c>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
       <c r="N6" s="40" t="str">
         <f>INDEX(B4:E9,MATCH(MAX(E4:E9),E4:E9,0),MATCH("Name",B3:E3,0))</f>
         <v>Maya</v>
@@ -16652,14 +17101,14 @@
       <c r="G7" s="39">
         <v>4</v>
       </c>
-      <c r="H7" s="203" t="s">
+      <c r="H7" s="212" t="s">
         <v>569</v>
       </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
       <c r="N7" s="40">
         <f>SUM(INDEX(B4:E9,MATCH("Chhaya", B4:B9, 0), 0))</f>
         <v>96792</v>
@@ -16681,14 +17130,14 @@
       <c r="G8" s="39">
         <v>5</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H8" s="212" t="s">
         <v>570</v>
       </c>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
       <c r="N8" s="40" t="str">
         <f>INDEX(B4:E9,MATCH(MIN(E4:E9),E4:E9,0),MATCH("Name",B3:E3,0))</f>
         <v>Chhaya</v>
@@ -16710,14 +17159,14 @@
       <c r="G9" s="41">
         <v>6</v>
       </c>
-      <c r="H9" s="210" t="s">
+      <c r="H9" s="214" t="s">
         <v>623</v>
       </c>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
       <c r="N9" s="43" t="str">
         <f>INDEX(B4:E9,MATCH(MAX(D4:D9),D4:D9,0),MATCH("Name",B3:E3,0))</f>
         <v>Riya</v>
@@ -46511,37 +46960,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="174" t="s">
         <v>239</v>
       </c>
-      <c r="C2" s="248" t="s">
+      <c r="C2" s="175" t="s">
         <v>1958</v>
       </c>
-      <c r="D2" s="248" t="s">
+      <c r="D2" s="175" t="s">
         <v>624</v>
       </c>
-      <c r="E2" s="248" t="s">
+      <c r="E2" s="175" t="s">
         <v>1959</v>
       </c>
-      <c r="F2" s="248" t="s">
+      <c r="F2" s="175" t="s">
         <v>473</v>
       </c>
-      <c r="G2" s="248" t="s">
+      <c r="G2" s="175" t="s">
         <v>499</v>
       </c>
-      <c r="H2" s="248" t="s">
+      <c r="H2" s="175" t="s">
         <v>1960</v>
       </c>
-      <c r="I2" s="248" t="s">
+      <c r="I2" s="175" t="s">
         <v>1989</v>
       </c>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="175" t="s">
         <v>1961</v>
       </c>
-      <c r="K2" s="248" t="s">
+      <c r="K2" s="175" t="s">
         <v>1962</v>
       </c>
-      <c r="L2" s="249" t="s">
+      <c r="L2" s="176" t="s">
         <v>1963</v>
       </c>
     </row>
@@ -47230,38 +47679,38 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="252">
+      <c r="B22" s="179">
         <v>45909</v>
       </c>
-      <c r="C22" s="250" t="s">
+      <c r="C22" s="177" t="s">
         <v>1964</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="177" t="s">
         <v>518</v>
       </c>
-      <c r="E22" s="250" t="s">
+      <c r="E22" s="177" t="s">
         <v>1965</v>
       </c>
-      <c r="F22" s="250" t="s">
+      <c r="F22" s="177" t="s">
         <v>1970</v>
       </c>
-      <c r="G22" s="250">
+      <c r="G22" s="177">
         <v>10</v>
       </c>
-      <c r="H22" s="250">
+      <c r="H22" s="177">
         <v>61.45</v>
       </c>
-      <c r="I22" s="250">
+      <c r="I22" s="177">
         <v>66</v>
       </c>
-      <c r="J22" s="250">
+      <c r="J22" s="177">
         <f t="shared" si="0"/>
         <v>-45.499999999999972</v>
       </c>
-      <c r="K22" s="250" t="s">
+      <c r="K22" s="177" t="s">
         <v>1971</v>
       </c>
-      <c r="L22" s="251" t="s">
+      <c r="L22" s="178" t="s">
         <v>1968</v>
       </c>
     </row>
@@ -47278,8 +47727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D654AAB-38B4-4E77-BCC2-5139F0EFB666}">
   <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="B1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47346,13 +47795,13 @@
       <c r="I3" s="173" t="s">
         <v>520</v>
       </c>
-      <c r="J3" s="246">
+      <c r="J3">
         <v>533.43999999999994</v>
       </c>
-      <c r="O3" s="253">
+      <c r="O3" s="180">
         <v>45901</v>
       </c>
-      <c r="P3" s="246">
+      <c r="P3">
         <v>189.76999999999998</v>
       </c>
     </row>
@@ -47360,29 +47809,28 @@
       <c r="B4" s="173" t="s">
         <v>520</v>
       </c>
-      <c r="C4" s="246">
+      <c r="C4">
         <v>357.62</v>
       </c>
-      <c r="D4" s="246">
+      <c r="D4">
         <v>136.29999999999998</v>
       </c>
-      <c r="E4" s="246">
+      <c r="E4">
         <v>39.519999999999982</v>
       </c>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246">
+      <c r="G4">
         <v>533.43999999999994</v>
       </c>
       <c r="I4" s="173" t="s">
         <v>522</v>
       </c>
-      <c r="J4" s="246">
+      <c r="J4">
         <v>157.71999999999997</v>
       </c>
-      <c r="O4" s="253">
+      <c r="O4" s="180">
         <v>45902</v>
       </c>
-      <c r="P4" s="246">
+      <c r="P4">
         <v>136.29999999999998</v>
       </c>
     </row>
@@ -47390,29 +47838,28 @@
       <c r="B5" s="173" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246">
+      <c r="D5">
         <v>74.88</v>
       </c>
-      <c r="E5" s="246">
+      <c r="E5">
         <v>26.279999999999998</v>
       </c>
-      <c r="F5" s="246">
+      <c r="F5">
         <v>56.559999999999988</v>
       </c>
-      <c r="G5" s="246">
+      <c r="G5">
         <v>157.71999999999997</v>
       </c>
       <c r="I5" s="173" t="s">
         <v>518</v>
       </c>
-      <c r="J5" s="246">
+      <c r="J5">
         <v>99.420000000000016</v>
       </c>
-      <c r="O5" s="253">
+      <c r="O5" s="180">
         <v>45903</v>
       </c>
-      <c r="P5" s="246">
+      <c r="P5">
         <v>140.76</v>
       </c>
     </row>
@@ -47420,27 +47867,25 @@
       <c r="B6" s="173" t="s">
         <v>518</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246">
+      <c r="E6">
         <v>17.820000000000029</v>
       </c>
-      <c r="F6" s="246">
+      <c r="F6">
         <v>81.599999999999994</v>
       </c>
-      <c r="G6" s="246">
+      <c r="G6">
         <v>99.420000000000016</v>
       </c>
       <c r="I6" s="173" t="s">
         <v>525</v>
       </c>
-      <c r="J6" s="246">
+      <c r="J6">
         <v>538.9</v>
       </c>
-      <c r="O6" s="253">
+      <c r="O6" s="180">
         <v>45904</v>
       </c>
-      <c r="P6" s="246">
+      <c r="P6">
         <v>158.06</v>
       </c>
     </row>
@@ -47448,27 +47893,25 @@
       <c r="B7" s="173" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246">
+      <c r="D7">
         <v>109.74</v>
       </c>
-      <c r="E7" s="246">
+      <c r="E7">
         <v>429.15999999999997</v>
       </c>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246">
+      <c r="G7">
         <v>538.9</v>
       </c>
       <c r="I7" s="173" t="s">
         <v>1986</v>
       </c>
-      <c r="J7" s="246">
+      <c r="J7">
         <v>1329.48</v>
       </c>
-      <c r="O7" s="253">
+      <c r="O7" s="180">
         <v>45905</v>
       </c>
-      <c r="P7" s="246">
+      <c r="P7">
         <v>117.80000000000001</v>
       </c>
     </row>
@@ -47476,57 +47919,57 @@
       <c r="B8" s="173" t="s">
         <v>1986</v>
       </c>
-      <c r="C8" s="246">
+      <c r="C8">
         <v>357.62</v>
       </c>
-      <c r="D8" s="246">
+      <c r="D8">
         <v>320.91999999999996</v>
       </c>
-      <c r="E8" s="246">
+      <c r="E8">
         <v>512.78</v>
       </c>
-      <c r="F8" s="246">
+      <c r="F8">
         <v>138.15999999999997</v>
       </c>
-      <c r="G8" s="246">
+      <c r="G8">
         <v>1329.48</v>
       </c>
-      <c r="O8" s="253">
+      <c r="O8" s="180">
         <v>45906</v>
       </c>
-      <c r="P8" s="246">
+      <c r="P8">
         <v>265.54999999999995</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O9" s="253">
+      <c r="O9" s="180">
         <v>45907</v>
       </c>
-      <c r="P9" s="246">
+      <c r="P9">
         <v>109.74</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O10" s="253">
+      <c r="O10" s="180">
         <v>45908</v>
       </c>
-      <c r="P10" s="246">
+      <c r="P10">
         <v>96.4</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O11" s="253">
+      <c r="O11" s="180">
         <v>45909</v>
       </c>
-      <c r="P11" s="246">
+      <c r="P11">
         <v>1.660000000000025</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="O12" s="253">
+      <c r="O12" s="180">
         <v>45910</v>
       </c>
-      <c r="P12" s="246">
+      <c r="P12">
         <v>113.44</v>
       </c>
     </row>
@@ -47534,7 +47977,7 @@
       <c r="O13" s="173" t="s">
         <v>1986</v>
       </c>
-      <c r="P13" s="246">
+      <c r="P13">
         <v>1329.48</v>
       </c>
     </row>
@@ -47545,6 +47988,434 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06581AF8-FAE1-4203-9FE5-C233DED98BC8}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="260" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="260"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="266" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="266" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F3" s="266" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G3" s="266" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H3" s="266" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40.799999999999997" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="268" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="268" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G4" s="268" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H4" s="268" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="263" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C5" s="263"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="262"/>
+      <c r="C6" s="262" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D6" s="257">
+        <v>100</v>
+      </c>
+      <c r="E6" s="267">
+        <v>100</v>
+      </c>
+      <c r="F6" s="267">
+        <v>200</v>
+      </c>
+      <c r="G6" s="267">
+        <v>300</v>
+      </c>
+      <c r="H6" s="257">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="262"/>
+      <c r="C7" s="262" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D7" s="257">
+        <v>8</v>
+      </c>
+      <c r="E7" s="267">
+        <v>8</v>
+      </c>
+      <c r="F7" s="257">
+        <v>8</v>
+      </c>
+      <c r="G7" s="257">
+        <v>8</v>
+      </c>
+      <c r="H7" s="267">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="263" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C8" s="263"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="264"/>
+      <c r="C9" s="264" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D9" s="258">
+        <v>700</v>
+      </c>
+      <c r="E9" s="258">
+        <v>700</v>
+      </c>
+      <c r="F9" s="258">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="258">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="258">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A411757-C388-481B-AE37-B4E1343FD4A3}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="202" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C2" s="208"/>
+      <c r="D2" s="85"/>
+      <c r="F2" s="202" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G2" s="208"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C3" s="40">
+        <v>8</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="F3" s="44" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G3" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C4" s="40">
+        <v>15</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="F4" s="44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G4" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="40">
+        <v>100</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="F5" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" s="40">
+        <v>214.28571428571428</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C6" s="40">
+        <f>C5 * C4</f>
+        <v>1500</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="F6" s="44" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G6" s="40">
+        <f>G5 * G4</f>
+        <v>3214.2857142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C7" s="40">
+        <f>C5 * C3</f>
+        <v>800</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="F7" s="44" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G7" s="40">
+        <f>G5 * G3</f>
+        <v>1714.2857142857142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="76" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C8" s="43">
+        <f xml:space="preserve"> C6 - C7</f>
+        <v>700</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="F8" s="76" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G8" s="43">
+        <f xml:space="preserve"> G6 - G7</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="253"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="253"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="202" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" s="208"/>
+      <c r="F11" s="256" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G11" s="255">
+        <f>C8</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C12" s="40">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <f t="dataTable" ref="G12:G17" dt2D="0" dtr="0" r1="C5"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C13" s="40">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="40">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C15" s="40">
+        <f>C14 * C13</f>
+        <v>1500</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+      <c r="G15">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C16" s="40">
+        <f>C14 * C12</f>
+        <v>800</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="76" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C17" s="43">
+        <f xml:space="preserve"> C15 - C16</f>
+        <v>700</v>
+      </c>
+      <c r="F17">
+        <v>700</v>
+      </c>
+      <c r="G17">
+        <v>4900</v>
+      </c>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0" sqref="C8">
+    <scenario name="Default" locked="1" count="2" user="HP" comment="Created by HP on 30-09-2025_x000a_Modified by HP on 30-09-2025">
+      <inputCells r="C5" val="100"/>
+      <inputCells r="C3" val="8"/>
+    </scenario>
+    <scenario name="Qty 200" locked="1" count="1" user="HP" comment="Created by HP on 30-09-2025">
+      <inputCells r="C5" val="200"/>
+    </scenario>
+    <scenario name="Qty 300" locked="1" count="1" user="HP" comment="Created by HP on 30-09-2025">
+      <inputCells r="C5" val="300"/>
+    </scenario>
+    <scenario name="Unit Price 11" locked="1" count="1" user="HP" comment="Created by HP on 30-09-2025">
+      <inputCells r="C3" val="11"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4E0518-BBF4-4866-833D-F49031F02450}">
   <dimension ref="B2:K34"/>
   <sheetViews>
@@ -47946,78 +48817,78 @@
       <c r="B14" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="243" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="236" t="s">
+      <c r="C16" s="243" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="236"/>
-      <c r="E16" s="236"/>
-      <c r="F16" s="236"/>
-      <c r="G16" s="236"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="243" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="237" t="s">
+      <c r="E19" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="237"/>
+      <c r="F19" s="244"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="238">
+      <c r="E20" s="245">
         <f>COUNTIF(K3:K12,"A")</f>
         <v>2</v>
       </c>
-      <c r="F20" s="238"/>
+      <c r="F20" s="245"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="238">
+      <c r="E21" s="245">
         <f>COUNTIF(K3:K12,"B")</f>
         <v>8</v>
       </c>
-      <c r="F21" s="238"/>
+      <c r="F21" s="245"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="236" t="s">
+      <c r="C23" s="243" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E24" s="19" t="s">
@@ -48057,13 +48928,13 @@
       <c r="B28" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="236" t="s">
+      <c r="C28" s="243" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="236"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D29" s="9" t="s">
@@ -48078,15 +48949,15 @@
       <c r="B31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="236" t="s">
+      <c r="C31" s="243" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="236"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E32" s="19" t="s">
@@ -48135,35 +49006,35 @@
     <mergeCell ref="C28:G28"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I12">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>400</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J12">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K12">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"""A"""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48178,7 +49049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9597321B-3DC6-4AAC-93BC-F9B613E9A917}">
   <dimension ref="C3:G46"/>
   <sheetViews>
@@ -48670,12 +49541,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="F29:F38">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"lets buy it"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Expensive"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48684,692 +49555,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FB8E6A-211E-41DE-9543-FB0738C3EE8D}">
-  <dimension ref="B2:D29"/>
-  <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="32">
-        <v>42370</v>
-      </c>
-      <c r="D3" s="33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="32">
-        <v>42502</v>
-      </c>
-      <c r="D4" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="32">
-        <v>42508</v>
-      </c>
-      <c r="D5" s="33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="32">
-        <v>42510</v>
-      </c>
-      <c r="D6" s="33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="32">
-        <v>42410</v>
-      </c>
-      <c r="D7" s="33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="32">
-        <v>42498</v>
-      </c>
-      <c r="D8" s="33">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="32">
-        <v>42500</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="32">
-        <v>42515</v>
-      </c>
-      <c r="D10" s="33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="32">
-        <v>42581</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="32">
-        <v>42561</v>
-      </c>
-      <c r="D12" s="33">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="32">
-        <v>42536</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="32">
-        <v>42381</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="32">
-        <v>42401</v>
-      </c>
-      <c r="D15" s="33">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="32">
-        <v>42500</v>
-      </c>
-      <c r="D16" s="33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="32">
-        <v>42663</v>
-      </c>
-      <c r="D17" s="33">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="32">
-        <v>42500</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="32">
-        <v>42508</v>
-      </c>
-      <c r="D19" s="33">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="32">
-        <v>42596</v>
-      </c>
-      <c r="D20" s="33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="32">
-        <v>42602</v>
-      </c>
-      <c r="D21" s="33">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="11">
-        <f>COUNTA(Table7[Items])</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(Table7[Items],"BRAKES")+COUNTIF(Table7[Items],"WINDOWS")+COUNTIF(Table7[Items],"TYRES")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="11">
-        <f>COUNTIF(Table7[Cost],"&gt;1000")</f>
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <f>COUNTIF(Table7[Cost],"&lt;1000")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="11">
-        <f>COUNTIFS(Table7[Items],"TYRES", Table7[Cost], "&gt;500", Table7[Cost], "&lt;2000")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="11">
-        <f>SUM(SUMIF(Table7[Items],"BRAKES",Table7[Cost]), SUMIF(Table7[Items],"WINDOW", Table7[Cost]))</f>
-        <v>11000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE4C9E7-5D9E-4D6F-8817-865D4674DD13}">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="11">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11">
-        <v>25</v>
-      </c>
-      <c r="E3" s="11">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11">
-        <f>SUM(C3:E3)</f>
-        <v>70</v>
-      </c>
-      <c r="G3" s="11">
-        <f>AVERAGE(C3:E3)</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="H3" s="40" t="str">
-        <f>IF(G3&gt;20,"A",IF(G3&gt;15,"B","C"))</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="11">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4:F11" si="0">SUM(C4:E4)</f>
-        <v>57</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" ref="G4:G11" si="1">AVERAGE(C4:E4)</f>
-        <v>19</v>
-      </c>
-      <c r="H4" s="40" t="str">
-        <f t="shared" ref="H4:H11" si="2">IF(G4&gt;20,"A",IF(G4&gt;15,"B","C"))</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="11">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="1"/>
-        <v>14.333333333333334</v>
-      </c>
-      <c r="H5" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="C6" s="11">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="1"/>
-        <v>15.333333333333334</v>
-      </c>
-      <c r="H6" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="11">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H7" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="11">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11">
-        <v>20</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="1"/>
-        <v>20.333333333333332</v>
-      </c>
-      <c r="H8" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C9" s="11">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11">
-        <v>22</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>20.333333333333332</v>
-      </c>
-      <c r="H9" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="11">
-        <v>17</v>
-      </c>
-      <c r="D10" s="11">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="1"/>
-        <v>20.333333333333332</v>
-      </c>
-      <c r="H10" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="42">
-        <v>20</v>
-      </c>
-      <c r="D11" s="42">
-        <v>25</v>
-      </c>
-      <c r="E11" s="42">
-        <v>25</v>
-      </c>
-      <c r="F11" s="42">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G11" s="42">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="H11" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="207" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="203" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="40">
-        <f>COUNTA(B3:B11)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="203" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="40">
-        <f>COUNTIF(C3:C11,"&gt;20")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="203" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="210" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -49398,11 +49583,11 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="182"/>
-      <c r="G2" s="183"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -49411,9 +49596,9 @@
       <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="184"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="186"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="193"/>
     </row>
     <row r="4" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -49422,9 +49607,9 @@
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="189"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
@@ -49441,11 +49626,11 @@
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
       <c r="H6" s="159">
         <f>SEARCH("ly", B4)</f>
         <v>4</v>
@@ -49461,11 +49646,11 @@
       <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="193" t="s">
+      <c r="E7" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="175"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="183"/>
       <c r="H7" s="155">
         <f>FIND("ch", B5)</f>
         <v>3</v>
@@ -49475,11 +49660,11 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E8" s="193" t="s">
+      <c r="E8" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="194"/>
-      <c r="G8" s="175"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="155" t="str">
         <f>LEFT(B3, 3)</f>
         <v>Joh</v>
@@ -49489,11 +49674,11 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="194"/>
-      <c r="G9" s="175"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="183"/>
       <c r="H9" s="155" t="str">
         <f>RIGHT(B3, 3)</f>
         <v>ohn</v>
@@ -49503,11 +49688,11 @@
       </c>
     </row>
     <row r="10" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="187"/>
       <c r="H10" s="158" t="str">
         <f>MID(B5, 4, 3)</f>
         <v>hae</v>
@@ -50685,6 +50870,692 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FB8E6A-211E-41DE-9543-FB0738C3EE8D}">
+  <dimension ref="B2:D29"/>
+  <sheetViews>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="32">
+        <v>42370</v>
+      </c>
+      <c r="D3" s="33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="32">
+        <v>42502</v>
+      </c>
+      <c r="D4" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="32">
+        <v>42508</v>
+      </c>
+      <c r="D5" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="32">
+        <v>42510</v>
+      </c>
+      <c r="D6" s="33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="32">
+        <v>42410</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="32">
+        <v>42498</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="32">
+        <v>42500</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="32">
+        <v>42515</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="32">
+        <v>42581</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="32">
+        <v>42561</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="32">
+        <v>42536</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="32">
+        <v>42381</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="32">
+        <v>42401</v>
+      </c>
+      <c r="D15" s="33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="32">
+        <v>42500</v>
+      </c>
+      <c r="D16" s="33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="32">
+        <v>42663</v>
+      </c>
+      <c r="D17" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="32">
+        <v>42500</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="32">
+        <v>42508</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="32">
+        <v>42596</v>
+      </c>
+      <c r="D20" s="33">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="32">
+        <v>42602</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="11">
+        <f>COUNTA(Table7[Items])</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Table7[Items],"BRAKES")+COUNTIF(Table7[Items],"WINDOWS")+COUNTIF(Table7[Items],"TYRES")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="11">
+        <f>COUNTIF(Table7[Cost],"&gt;1000")</f>
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(Table7[Cost],"&lt;1000")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="11">
+        <f>COUNTIFS(Table7[Items],"TYRES", Table7[Cost], "&gt;500", Table7[Cost], "&lt;2000")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="11">
+        <f>SUM(SUMIF(Table7[Items],"BRAKES",Table7[Cost]), SUMIF(Table7[Items],"WINDOW", Table7[Cost]))</f>
+        <v>11000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE4C9E7-5D9E-4D6F-8817-865D4674DD13}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(C3:E3)</f>
+        <v>70</v>
+      </c>
+      <c r="G3" s="11">
+        <f>AVERAGE(C3:E3)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H3" s="40" t="str">
+        <f>IF(G3&gt;20,"A",IF(G3&gt;15,"B","C"))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="11">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F11" si="0">SUM(C4:E4)</f>
+        <v>57</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G11" si="1">AVERAGE(C4:E4)</f>
+        <v>19</v>
+      </c>
+      <c r="H4" s="40" t="str">
+        <f t="shared" ref="H4:H11" si="2">IF(G4&gt;20,"A",IF(G4&gt;15,"B","C"))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="11">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="H5" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="11">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="H6" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="11">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H7" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="11">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="H8" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="11">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11">
+        <v>22</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="H9" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="11">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="H10" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="42">
+        <v>20</v>
+      </c>
+      <c r="D11" s="42">
+        <v>25</v>
+      </c>
+      <c r="E11" s="42">
+        <v>25</v>
+      </c>
+      <c r="F11" s="42">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H11" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="212" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="40">
+        <f>COUNTA(B3:B11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="212" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="40">
+        <f>COUNTIF(C3:C11,"&gt;20")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="212" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="214" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4C38C3-4807-4D4B-A490-0A02FDE12495}">
   <dimension ref="B1:J19"/>
   <sheetViews>
@@ -50961,14 +51832,14 @@
       <c r="B13" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="218" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
       <c r="I13" s="38" t="s">
         <v>55</v>
       </c>
@@ -50977,14 +51848,14 @@
       <c r="B14" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="203" t="s">
+      <c r="C14" s="212" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
       <c r="I14" s="40">
         <f>COUNTA(B3:B11)</f>
         <v>9</v>
@@ -50994,14 +51865,14 @@
       <c r="B15" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="203" t="s">
+      <c r="C15" s="212" t="s">
         <v>397</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
       <c r="I15" s="40">
         <f>COUNTIF(G3:G11,"&gt;0.5")</f>
         <v>4</v>
@@ -51011,14 +51882,14 @@
       <c r="B16" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="203" t="s">
+      <c r="C16" s="212" t="s">
         <v>398</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
       <c r="I16" s="40">
         <f>SUM(SUMIF(B3:B11,"BOB",F3:F11),SUMIF(B3:B11,"Eric",F3:F11))</f>
         <v>170</v>
@@ -51028,14 +51899,14 @@
       <c r="B17" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="203" t="s">
+      <c r="C17" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
       <c r="I17" s="63" t="s">
         <v>403</v>
       </c>
@@ -51044,14 +51915,14 @@
       <c r="B18" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="212" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
       <c r="I18" s="11">
         <f>COUNTIF(H3:H11,"Good")</f>
         <v>1</v>
@@ -51065,14 +51936,14 @@
       <c r="B19" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="214" t="s">
         <v>401</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
       <c r="I19" s="64">
         <f>COUNT(E3:E11)</f>
         <v>7</v>
@@ -51093,7 +51964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3215E108-18F0-4BC6-8121-CDE4D69E6DB7}">
   <dimension ref="B1:H20"/>
   <sheetViews>
@@ -51446,13 +52317,13 @@
       <c r="B15" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="207" t="s">
+      <c r="C15" s="218" t="s">
         <v>246</v>
       </c>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="207"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
       <c r="H15" s="38" t="s">
         <v>55</v>
       </c>
@@ -51461,13 +52332,13 @@
       <c r="B16" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="203" t="s">
+      <c r="C16" s="212" t="s">
         <v>396</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
       <c r="H16" s="40">
         <f>COUNTA(B3:B13)</f>
         <v>11</v>
@@ -51477,13 +52348,13 @@
       <c r="B17" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="203" t="s">
+      <c r="C17" s="212" t="s">
         <v>458</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="40">
         <f ca="1">G12</f>
         <v>15</v>
@@ -51493,13 +52364,13 @@
       <c r="B18" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="212" t="s">
         <v>459</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="40">
         <f ca="1">COUNTIF(G3:G13,"&gt;20")</f>
         <v>8</v>
@@ -51509,13 +52380,13 @@
       <c r="B19" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="203" t="s">
+      <c r="C19" s="212" t="s">
         <v>460</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="49" t="s">
         <v>374</v>
       </c>
@@ -51524,13 +52395,13 @@
       <c r="B20" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="214" t="s">
         <v>461</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
       <c r="H20" s="43">
         <f ca="1">COUNTIF(G3:G13,"&gt;=25")</f>
         <v>7</v>
@@ -51549,7 +52420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B386D505-7636-47E6-9F36-33F1C9D22E3A}">
   <dimension ref="B1:H11"/>
   <sheetViews>
@@ -51579,10 +52450,10 @@
       <c r="F2" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="207" t="s">
+      <c r="G2" s="218" t="s">
         <v>487</v>
       </c>
-      <c r="H2" s="243"/>
+      <c r="H2" s="250"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -51600,11 +52471,11 @@
       <c r="F3" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G3" s="239" t="str">
+      <c r="G3" s="246" t="str">
         <f>IF(AND(C3 = "PASS", D3 = "PASS", E3 = "PASS", F3 = "PASS"), "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="H3" s="240"/>
+      <c r="H3" s="247"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
@@ -51622,11 +52493,11 @@
       <c r="F4" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G4" s="239" t="str">
+      <c r="G4" s="246" t="str">
         <f t="shared" ref="G4:G11" si="0">IF(AND(C4 = "PASS", D4 = "PASS", E4 = "PASS", F4 = "PASS"), "YES", "NO")</f>
         <v>YES</v>
       </c>
-      <c r="H4" s="240"/>
+      <c r="H4" s="247"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
@@ -51644,11 +52515,11 @@
       <c r="F5" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G5" s="239" t="str">
+      <c r="G5" s="246" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="247"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
@@ -51666,11 +52537,11 @@
       <c r="F6" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="239" t="str">
+      <c r="G6" s="246" t="str">
         <f t="shared" si="0"/>
         <v>YES</v>
       </c>
-      <c r="H6" s="240"/>
+      <c r="H6" s="247"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
@@ -51688,11 +52559,11 @@
       <c r="F7" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G7" s="239" t="str">
+      <c r="G7" s="246" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="H7" s="240"/>
+      <c r="H7" s="247"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
@@ -51710,11 +52581,11 @@
       <c r="F8" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="G8" s="239" t="str">
+      <c r="G8" s="246" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="H8" s="240"/>
+      <c r="H8" s="247"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
@@ -51732,11 +52603,11 @@
       <c r="F9" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="G9" s="239" t="str">
+      <c r="G9" s="246" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="H9" s="240"/>
+      <c r="H9" s="247"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
@@ -51754,11 +52625,11 @@
       <c r="F10" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="G10" s="239" t="str">
+      <c r="G10" s="246" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="H10" s="240"/>
+      <c r="H10" s="247"/>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="41" t="s">
@@ -51776,11 +52647,11 @@
       <c r="F11" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="G11" s="241" t="str">
+      <c r="G11" s="248" t="str">
         <f t="shared" si="0"/>
         <v>YES</v>
       </c>
-      <c r="H11" s="242"/>
+      <c r="H11" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -51799,7 +52670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBB0A7-5413-4F7D-B3B3-41C9230BBAC0}">
   <dimension ref="B1:P24"/>
   <sheetViews>
@@ -51819,15 +52690,15 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="J2" s="195" t="s">
+      <c r="C2" s="208"/>
+      <c r="J2" s="202" t="s">
         <v>534</v>
       </c>
-      <c r="K2" s="204"/>
-      <c r="L2" s="205"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="208"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="79" t="s">
@@ -51836,10 +52707,10 @@
       <c r="C3" s="80" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="206" t="s">
+      <c r="E3" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="207"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="38" t="s">
         <v>55</v>
       </c>
@@ -51852,10 +52723,10 @@
       <c r="L3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="206" t="s">
+      <c r="N3" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="O3" s="207"/>
+      <c r="O3" s="218"/>
       <c r="P3" s="38" t="s">
         <v>55</v>
       </c>
@@ -51867,10 +52738,10 @@
       <c r="C4" s="40">
         <v>250</v>
       </c>
-      <c r="E4" s="245" t="s">
+      <c r="E4" s="252" t="s">
         <v>502</v>
       </c>
-      <c r="F4" s="239"/>
+      <c r="F4" s="246"/>
       <c r="G4" s="40">
         <f>AVERAGEIF(B4:B15, "B", C4:C15)</f>
         <v>37.5</v>
@@ -51884,10 +52755,10 @@
       <c r="L4" s="40">
         <v>25000</v>
       </c>
-      <c r="N4" s="244" t="s">
+      <c r="N4" s="251" t="s">
         <v>535</v>
       </c>
-      <c r="O4" s="241"/>
+      <c r="O4" s="248"/>
       <c r="P4" s="43">
         <f>AVERAGEIF(J3:J15, "West", L3:L15)</f>
         <v>8233.3333333333339</v>
@@ -51900,10 +52771,10 @@
       <c r="C5" s="40">
         <v>110</v>
       </c>
-      <c r="E5" s="245" t="s">
+      <c r="E5" s="252" t="s">
         <v>503</v>
       </c>
-      <c r="F5" s="239"/>
+      <c r="F5" s="246"/>
       <c r="G5" s="81">
         <f>AVERAGEIF(B4:B15, "D", C4:C15)</f>
         <v>194.33333333333334</v>
@@ -52106,11 +52977,11 @@
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="202" t="s">
         <v>515</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="208"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="44" t="s">
@@ -52122,10 +52993,10 @@
       <c r="D18" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="F18" s="206" t="s">
+      <c r="F18" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="207"/>
+      <c r="G18" s="218"/>
       <c r="H18" s="38" t="s">
         <v>55</v>
       </c>
@@ -52140,10 +53011,10 @@
       <c r="D19" s="40">
         <v>90</v>
       </c>
-      <c r="F19" s="245" t="s">
+      <c r="F19" s="252" t="s">
         <v>513</v>
       </c>
-      <c r="G19" s="239"/>
+      <c r="G19" s="246"/>
       <c r="H19" s="40">
         <f>AVERAGEIF(C18:C24, "Second", D18:D24)</f>
         <v>80</v>
@@ -52159,10 +53030,10 @@
       <c r="D20" s="40">
         <v>70</v>
       </c>
-      <c r="F20" s="244" t="s">
+      <c r="F20" s="251" t="s">
         <v>514</v>
       </c>
-      <c r="G20" s="241"/>
+      <c r="G20" s="248"/>
       <c r="H20" s="43">
         <f>AVERAGEIF(C18:C24, "Third", D18:D24)</f>
         <v>61.666666666666664</v>
@@ -52230,7 +53101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A789BEE5-CF97-4E42-B97E-66B1FFF2EE7C}">
   <dimension ref="B1:E9"/>
   <sheetViews>
@@ -52247,12 +53118,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>558</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="208"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -52366,7 +53237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B73A1E6-B3E0-4C41-8419-AD22EC4A0DAE}">
   <dimension ref="B1:S27"/>
   <sheetViews>
@@ -52385,27 +53256,27 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
-      <c r="G2" s="195" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="208"/>
+      <c r="G2" s="202" t="s">
         <v>471</v>
       </c>
-      <c r="H2" s="205"/>
+      <c r="H2" s="208"/>
       <c r="K2" s="85"/>
-      <c r="M2" s="195" t="s">
+      <c r="M2" s="202" t="s">
         <v>619</v>
       </c>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="R2" s="195" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="208"/>
+      <c r="R2" s="202" t="s">
         <v>635</v>
       </c>
-      <c r="S2" s="205"/>
+      <c r="S2" s="208"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -53229,32 +54100,32 @@
       <c r="K23" s="85"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="217" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
       <c r="J24" s="38" t="s">
         <v>55</v>
       </c>
       <c r="K24" s="85"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="202" t="s">
+      <c r="B25" s="215" t="s">
         <v>620</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
       <c r="J25" s="40" cm="1">
         <f t="array" ref="J25">SUM(COUNTIF(E3:E22, {"HR","IT","Marketing"}))</f>
         <v>8</v>
@@ -53262,16 +54133,16 @@
       <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="202" t="s">
+      <c r="B26" s="215" t="s">
         <v>621</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
       <c r="J26" s="40">
         <f>VLOOKUP("Santosh", C3:E22, 2, 0)</f>
         <v>93509</v>
@@ -53279,16 +54150,16 @@
       <c r="K26" s="85"/>
     </row>
     <row r="27" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="211" t="s">
+      <c r="B27" s="216" t="s">
         <v>622</v>
       </c>
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
       <c r="J27" s="43" cm="1">
         <f t="array" ref="J27">SUM(SUMIF(E3:E22,{"IT","Marketing"},D3:D22))</f>
         <v>417932</v>
@@ -53306,12 +54177,12 @@
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A70EE24-BF67-44A0-AB5B-A47394095FB4}">
   <dimension ref="B1:E19"/>
   <sheetViews>
@@ -53323,12 +54194,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="202" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="208"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -53402,11 +54273,11 @@
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="202" t="s">
         <v>631</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="205"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="208"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="44" t="s">
@@ -53849,23 +54720,23 @@
     </row>
     <row r="11" spans="2:6" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="202" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="196"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="197"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
     </row>
     <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="177" t="s">
+      <c r="C13" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
       <c r="F13" s="95">
         <f>SUM(D3:D9)</f>
         <v>420000</v>
@@ -53875,11 +54746,11 @@
       <c r="B14" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
       <c r="F14" s="95">
         <f>SUMIF(C3:C9,"HR",D3:D9)</f>
         <v>153000</v>
@@ -53889,11 +54760,11 @@
       <c r="B15" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="198" t="s">
+      <c r="C15" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="198"/>
-      <c r="E15" s="198"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
       <c r="F15" s="143">
         <f>SUMIFS(D3:D9,C3:C9,"HR")</f>
         <v>153000</v>
@@ -53906,11 +54777,11 @@
       <c r="B17" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="206" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
       <c r="F17" s="96">
         <f>AVERAGE(D3:D9)</f>
         <v>60000</v>
@@ -53920,11 +54791,11 @@
       <c r="B18" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
       <c r="F18" s="95">
         <f>AVERAGEIF(C3:C9, "Finance", D3:D9)</f>
         <v>62500</v>
@@ -53934,11 +54805,11 @@
       <c r="B19" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="198" t="s">
+      <c r="C19" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
       <c r="F19" s="143">
         <f>AVERAGEIFS(D3:D9, E3:E9, "M", C3:C9, "Finance")</f>
         <v>62500</v>
@@ -53951,11 +54822,11 @@
       <c r="B21" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="199" t="s">
+      <c r="C21" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
       <c r="F21" s="96">
         <f>COUNTA(C3:C9)</f>
         <v>7</v>
@@ -53965,11 +54836,11 @@
       <c r="B22" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="95">
         <f>COUNTIF(C3:C9, "Finance")</f>
         <v>2</v>
@@ -53979,11 +54850,11 @@
       <c r="B23" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="198" t="s">
+      <c r="C23" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
       <c r="F23" s="143">
         <f>COUNTIFS(E3:E9, "F", C3:C9, "IT")</f>
         <v>2</v>
@@ -54047,7 +54918,7 @@
       </c>
       <c r="D3" s="139">
         <f ca="1">RAND()</f>
-        <v>0.59948593332970312</v>
+        <v>0.37367320122059011</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
@@ -54059,7 +54930,7 @@
       </c>
       <c r="D4" s="139">
         <f ca="1">RANDBETWEEN(2,10)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -55758,10 +56629,10 @@
       <c r="L2" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="206" t="s">
+      <c r="N2" s="217" t="s">
         <v>354</v>
       </c>
-      <c r="O2" s="207"/>
+      <c r="O2" s="218"/>
       <c r="P2" s="38" t="s">
         <v>55</v>
       </c>
@@ -55797,10 +56668,10 @@
       <c r="L3" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="N3" s="208" t="s">
+      <c r="N3" s="211" t="s">
         <v>348</v>
       </c>
-      <c r="O3" s="203"/>
+      <c r="O3" s="212"/>
       <c r="P3" s="40" t="b">
         <f>C3=60</f>
         <v>0</v>
@@ -55835,10 +56706,10 @@
       <c r="L4" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="N4" s="208" t="s">
+      <c r="N4" s="211" t="s">
         <v>349</v>
       </c>
-      <c r="O4" s="203"/>
+      <c r="O4" s="212"/>
       <c r="P4" s="40" t="b">
         <f>D4&gt;50</f>
         <v>1</v>
@@ -55875,10 +56746,10 @@
       <c r="L5" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="N5" s="208" t="s">
+      <c r="N5" s="211" t="s">
         <v>350</v>
       </c>
-      <c r="O5" s="203"/>
+      <c r="O5" s="212"/>
       <c r="P5" s="40" t="b">
         <f>E5&lt;70</f>
         <v>0</v>
@@ -55913,10 +56784,10 @@
       <c r="L6" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="N6" s="208" t="s">
+      <c r="N6" s="211" t="s">
         <v>351</v>
       </c>
-      <c r="O6" s="203"/>
+      <c r="O6" s="212"/>
       <c r="P6" s="40" t="b">
         <f>F6&lt;&gt;60</f>
         <v>1</v>
@@ -55953,10 +56824,10 @@
       <c r="L7" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="N7" s="208" t="s">
+      <c r="N7" s="211" t="s">
         <v>352</v>
       </c>
-      <c r="O7" s="203"/>
+      <c r="O7" s="212"/>
       <c r="P7" s="40" t="b">
         <f>G7&gt;=60</f>
         <v>1</v>
@@ -55970,158 +56841,158 @@
       <c r="L8" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="N8" s="209" t="s">
+      <c r="N8" s="213" t="s">
         <v>353</v>
       </c>
-      <c r="O8" s="210"/>
+      <c r="O8" s="214"/>
       <c r="P8" s="43" t="b">
         <f>E3&lt;=70</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="202" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="205"/>
-      <c r="J9" s="195" t="s">
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="208"/>
+      <c r="J9" s="202" t="s">
         <v>344</v>
       </c>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="205"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="208"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
       <c r="H10" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
       <c r="P10" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="211" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
       <c r="H11" s="40" t="b">
         <f>AND(C3&gt;70,D3&gt;80)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="202" t="s">
+      <c r="J11" s="215" t="s">
         <v>321</v>
       </c>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="212"/>
       <c r="P11" s="40" t="b">
         <f>IF(G3&gt;=70,TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
       <c r="H12" s="40" t="b">
         <f>AND(G6&lt;60,H6="B")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="202" t="s">
+      <c r="J12" s="215" t="s">
         <v>322</v>
       </c>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
       <c r="P12" s="40" t="b">
         <f>IF(E4&gt;=65,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="208" t="s">
+      <c r="B13" s="211" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
       <c r="H13" s="40" t="b">
         <f>AND(E5&gt;90,H5="C")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="202" t="s">
+      <c r="J13" s="215" t="s">
         <v>323</v>
       </c>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="212"/>
       <c r="P13" s="40" t="b">
         <f>IF(F6&gt;=210,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="213" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
       <c r="H14" s="43" t="b">
         <f>AND(F4=200,H4="A")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="211" t="s">
+      <c r="J14" s="216" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
       <c r="P14" s="43" t="b">
         <f>IF(D7&gt;=60,TRUE,FALSE)</f>
         <v>1</v>
@@ -56129,296 +57000,296 @@
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="202" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="205"/>
-      <c r="J16" s="195" t="s">
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="208"/>
+      <c r="J16" s="202" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="205"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="207"/>
+      <c r="P16" s="208"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
       <c r="H17" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="200" t="s">
+      <c r="J17" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="210"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
       <c r="P17" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="211" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="203"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="40" t="b">
         <f>OR(C3&lt;60,H3="B")</f>
         <v>0</v>
       </c>
-      <c r="J18" s="202" t="s">
+      <c r="J18" s="215" t="s">
         <v>325</v>
       </c>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="212"/>
+      <c r="O18" s="212"/>
       <c r="P18" s="46" t="b">
         <f>IF(AND(C5&gt;85,D5&gt;85),TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="211" t="s">
         <v>314</v>
       </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="40" t="b">
         <f>OR(D4&gt;75,G4&gt;70)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="211" t="s">
+      <c r="J19" s="216" t="s">
         <v>326</v>
       </c>
-      <c r="K19" s="210"/>
-      <c r="L19" s="210"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="210"/>
-      <c r="O19" s="210"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
       <c r="P19" s="47" t="b">
         <f>IF(AND(C4&gt;70,E4&gt;60),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="208" t="s">
+      <c r="B20" s="211" t="s">
         <v>315</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="40" t="b">
         <f>OR(H5="B",E5&gt;90)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="213" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="43" t="b">
         <f>OR(G6&gt;80,F6&lt;200)</f>
         <v>1</v>
       </c>
-      <c r="J21" s="195" t="s">
+      <c r="J21" s="202" t="s">
         <v>346</v>
       </c>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="205"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="207"/>
+      <c r="P21" s="208"/>
     </row>
     <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
       <c r="P22" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="202" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="205"/>
-      <c r="J23" s="202" t="s">
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="208"/>
+      <c r="J23" s="215" t="s">
         <v>327</v>
       </c>
-      <c r="K23" s="203"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="203"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="212"/>
       <c r="P23" s="46" t="b">
         <f>IF(OR(G7&gt;85,E7&gt;90),TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="200" t="s">
+      <c r="B24" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
       <c r="H24" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="211" t="s">
+      <c r="J24" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="K24" s="210"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="210"/>
-      <c r="N24" s="210"/>
-      <c r="O24" s="210"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
       <c r="P24" s="47" t="b">
         <f>IF(OR(C6&lt;50,D6&lt;55),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="211" t="s">
         <v>317</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="40" t="b">
         <f>NOT(H3="B")</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="211" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
       <c r="H26" s="40" t="b">
         <f>NOT(G5&lt;90)</f>
         <v>1</v>
       </c>
-      <c r="J26" s="195" t="s">
+      <c r="J26" s="202" t="s">
         <v>347</v>
       </c>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="205"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="208"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="208" t="s">
+      <c r="B27" s="211" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="40" t="b">
         <f>NOT(E4&gt;65)</f>
         <v>1</v>
       </c>
-      <c r="J27" s="200" t="s">
+      <c r="J27" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="201"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
       <c r="P27" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="209" t="s">
+      <c r="B28" s="213" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="43" t="b">
         <f>NOT(F6&gt;180)</f>
         <v>1</v>
       </c>
-      <c r="J28" s="202" t="s">
+      <c r="J28" s="215" t="s">
         <v>329</v>
       </c>
-      <c r="K28" s="203"/>
-      <c r="L28" s="203"/>
-      <c r="M28" s="203"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="203"/>
+      <c r="K28" s="212"/>
+      <c r="L28" s="212"/>
+      <c r="M28" s="212"/>
+      <c r="N28" s="212"/>
+      <c r="O28" s="212"/>
       <c r="P28" s="40" t="b">
         <f>IF(NOT(H5&lt;&gt;"B"),TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="211" t="s">
+      <c r="J29" s="216" t="s">
         <v>330</v>
       </c>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="210"/>
-      <c r="N29" s="210"/>
-      <c r="O29" s="210"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
       <c r="P29" s="43" t="b">
         <f>IF(NOT(C3&lt;=60),TRUE,FALSE)</f>
         <v>1</v>
@@ -56426,24 +57297,17 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="J12:O12"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:O14"/>
     <mergeCell ref="J27:O27"/>
@@ -56458,17 +57322,24 @@
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J18:O18"/>
     <mergeCell ref="J19:O19"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J12:O12"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56496,11 +57367,11 @@
       <c r="B2" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="212" t="s">
+      <c r="C2" s="219" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="220"/>
       <c r="G2" s="36" t="s">
         <v>381</v>
       </c>
@@ -56524,11 +57395,11 @@
       <c r="B3" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="203" t="s">
+      <c r="C3" s="212" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="214"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="221"/>
       <c r="G3" s="52">
         <v>100000</v>
       </c>
@@ -56555,11 +57426,11 @@
       <c r="B4" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="214" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="222"/>
       <c r="G4" s="52">
         <v>150000</v>
       </c>
